--- a/P1/wf_Meta/test_sheets/For Pega.xlsx
+++ b/P1/wf_Meta/test_sheets/For Pega.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\wf_Meta\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D7CE6-D025-4649-8F1F-8111D481431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD13C8F-D450-4CB8-A8B1-FED321FCC111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23415" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="-1335" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My List" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Rhonbrau Klosterbier</t>
-  </si>
-  <si>
-    <t>Outback Lager</t>
-  </si>
-  <si>
-    <t>Original Frankfurter Grune SoBe</t>
-  </si>
-  <si>
-    <t>Northwoods Cranberry Sauce</t>
-  </si>
-  <si>
-    <t>Louisiana Hot Spiced Okra</t>
+    <t>Gula Malacca</t>
+  </si>
+  <si>
+    <t>Ipoh Coffee</t>
+  </si>
+  <si>
+    <t>Lakkalikoori</t>
+  </si>
+  <si>
+    <t>Laughing Lumberjack Lager</t>
+  </si>
+  <si>
+    <t>Louisiana Fiery Hot Pepper Sauce</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,26 +381,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -408,7 +408,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
